--- a/files/ingredients.xlsx
+++ b/files/ingredients.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Baking Soda</t>
   </si>
   <si>
-    <t xml:space="preserve">Yeast</t>
+    <t xml:space="preserve">yest</t>
   </si>
   <si>
     <t xml:space="preserve">Spices</t>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Salt</t>
   </si>
   <si>
-    <t xml:space="preserve">Milk</t>
+    <t xml:space="preserve">flor</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
